--- a/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.198</v>
+        <v>1.275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.898</v>
+        <v>0.908</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>0.589</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>0.889</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.173</v>
+        <v>3.486</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>1.438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="E3" t="n">
-        <v>1.297</v>
+        <v>1.551</v>
       </c>
       <c r="F3" t="n">
-        <v>1.69</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.885</v>
+        <v>0.874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796</v>
+        <v>0.79</v>
       </c>
       <c r="D4" t="n">
-        <v>0.661</v>
+        <v>0.673</v>
       </c>
       <c r="E4" t="n">
-        <v>0.879</v>
+        <v>0.855</v>
       </c>
       <c r="F4" t="n">
-        <v>0.772</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="5">

--- a/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.275</v>
+        <v>1.217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.908</v>
+        <v>0.967</v>
       </c>
       <c r="D2" t="n">
-        <v>0.589</v>
+        <v>0.593</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F2" t="n">
-        <v>0.88</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.486</v>
+        <v>1.769</v>
       </c>
       <c r="C3" t="n">
-        <v>1.438</v>
+        <v>1.235</v>
       </c>
       <c r="D3" t="n">
-        <v>0.66</v>
+        <v>0.797</v>
       </c>
       <c r="E3" t="n">
-        <v>1.551</v>
+        <v>1.233</v>
       </c>
       <c r="F3" t="n">
-        <v>1.657</v>
+        <v>1.034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.874</v>
+        <v>3.218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.79</v>
+        <v>1.532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.673</v>
+        <v>0.636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.855</v>
+        <v>1.593</v>
       </c>
       <c r="F4" t="n">
-        <v>0.776</v>
+        <v>1.107</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.8</v>
+        <v>0.883</v>
       </c>
       <c r="C5" t="n">
-        <v>6.556</v>
+        <v>0.778</v>
       </c>
       <c r="D5" t="n">
-        <v>2.11</v>
+        <v>0.681</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>0.852</v>
       </c>
       <c r="F5" t="n">
-        <v>3.478</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.279</v>
+        <v>7.8</v>
       </c>
       <c r="C6" t="n">
-        <v>57.593</v>
+        <v>6.556</v>
       </c>
       <c r="D6" t="n">
-        <v>7.548</v>
+        <v>2.11</v>
       </c>
       <c r="E6" t="n">
-        <v>13.266</v>
+        <v>3.06</v>
       </c>
       <c r="F6" t="n">
-        <v>16.591</v>
+        <v>3.478</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.262</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.571</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.745</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.623</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>86.279</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.593</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.548</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13.266</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.591</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-2.147</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-7.492</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-2.846</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.258</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-1.096</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.217</v>
+        <v>1.333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.967</v>
+        <v>0.928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.593</v>
+        <v>0.59</v>
       </c>
       <c r="E2" t="n">
-        <v>0.91</v>
+        <v>0.996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.761</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.769</v>
+        <v>1.816</v>
       </c>
       <c r="C3" t="n">
-        <v>1.235</v>
+        <v>1.161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.797</v>
+        <v>0.771</v>
       </c>
       <c r="E3" t="n">
-        <v>1.233</v>
+        <v>1.334</v>
       </c>
       <c r="F3" t="n">
-        <v>1.034</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.218</v>
+        <v>3.42</v>
       </c>
       <c r="C4" t="n">
-        <v>1.532</v>
+        <v>1.353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.636</v>
+        <v>0.61</v>
       </c>
       <c r="E4" t="n">
-        <v>1.593</v>
+        <v>1.808</v>
       </c>
       <c r="F4" t="n">
-        <v>1.107</v>
+        <v>1.067</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.883</v>
+        <v>0.879</v>
       </c>
       <c r="C5" t="n">
-        <v>0.778</v>
+        <v>0.803</v>
       </c>
       <c r="D5" t="n">
-        <v>0.681</v>
+        <v>0.703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.852</v>
+        <v>0.832</v>
       </c>
       <c r="F5" t="n">
-        <v>0.851</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="6">

--- a/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFpm25_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.333</v>
+        <v>1.239</v>
       </c>
       <c r="C2" t="n">
-        <v>0.928</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="3">
@@ -489,16 +489,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.816</v>
+        <v>1.768</v>
       </c>
       <c r="C3" t="n">
-        <v>1.161</v>
+        <v>1.133</v>
       </c>
       <c r="D3" t="n">
-        <v>0.771</v>
+        <v>0.745</v>
       </c>
       <c r="E3" t="n">
-        <v>1.334</v>
+        <v>1.33</v>
       </c>
       <c r="F3" t="n">
         <v>1.013</v>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.42</v>
+        <v>3.215</v>
       </c>
       <c r="C4" t="n">
-        <v>1.353</v>
+        <v>1.295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.61</v>
+        <v>0.571</v>
       </c>
       <c r="E4" t="n">
-        <v>1.808</v>
+        <v>1.802</v>
       </c>
       <c r="F4" t="n">
         <v>1.067</v>
@@ -533,16 +533,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.879</v>
+        <v>0.883</v>
       </c>
       <c r="C5" t="n">
-        <v>0.803</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.703</v>
+        <v>0.722</v>
       </c>
       <c r="E5" t="n">
-        <v>0.832</v>
+        <v>0.834</v>
       </c>
       <c r="F5" t="n">
         <v>0.858</v>
